--- a/CashFlow/ABMD_cashflow.xlsx
+++ b/CashFlow/ABMD_cashflow.xlsx
@@ -764,19 +764,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>335000000.0</v>
+        <v>87596000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>344000000.0</v>
+        <v>6620000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>260943000.0</v>
+        <v>5038000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>172978000.0</v>
+        <v>-6209000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>76739000.0</v>
+        <v>-13237000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-23920000.0</v>
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>26853000.0</v>
+        <v>109000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-6407000.0</v>
+        <v>107000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4073000.0</v>
+        <v>95461000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>15118000.0</v>
+        <v>78836000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>12933000.0</v>
+        <v>44193000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>17690000.0</v>
